--- a/web/files/crm/contact/fichier_import_contacts.xlsx
+++ b/web/files/crm/contact/fichier_import_contacts.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="611"/>
   </bookViews>
   <sheets>
-    <sheet name="Prospection BYW" sheetId="1" r:id="rId1"/>
+    <sheet name="Import J'aime le Commercial" sheetId="1" r:id="rId1"/>
     <sheet name="Choices" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Prospection BYW'!$A$1:$AS$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Import J''aime le Commercial'!$A$1:$AS$1</definedName>
     <definedName name="Choices">Choices!$A$1:$A$2</definedName>
     <definedName name="ChoicesBoolean">Choices!$A$1:$A$2</definedName>
     <definedName name="ChoicesBooleen">Choices!$A$1:$A$2</definedName>
+    <definedName name="OuiOuNon">Feuil1!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Nom</t>
   </si>
@@ -94,9 +96,6 @@
     <t>Thême d’interêt</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
@@ -110,10 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,14 +119,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -156,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,36 +176,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -227,33 +196,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,183 +507,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS994"/>
+  <dimension ref="A1:AS992"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="1"/>
     <col min="2" max="2" width="34.140625" style="1"/>
-    <col min="3" max="3" width="37.7109375" style="1"/>
-    <col min="4" max="6" width="31.7109375"/>
-    <col min="7" max="7" width="28.28515625" style="2"/>
-    <col min="8" max="8" width="24.42578125" style="3"/>
-    <col min="9" max="9" width="22.5703125" style="3"/>
-    <col min="10" max="10" width="34"/>
-    <col min="11" max="11" width="51.42578125"/>
-    <col min="12" max="12" width="35.28515625"/>
-    <col min="13" max="13" width="29.28515625" style="4"/>
-    <col min="14" max="14" width="41.42578125"/>
-    <col min="15" max="15" width="46.140625"/>
-    <col min="16" max="16" width="53.7109375"/>
-    <col min="17" max="17" width="39.5703125"/>
-    <col min="18" max="19" width="34.5703125"/>
+    <col min="3" max="3" width="31.7109375"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="8"/>
+    <col min="6" max="6" width="28.28515625" style="9"/>
+    <col min="7" max="7" width="24.42578125" style="10"/>
+    <col min="8" max="8" width="22.5703125" style="10"/>
+    <col min="9" max="9" width="34"/>
+    <col min="10" max="10" width="51.42578125"/>
+    <col min="11" max="11" width="35.28515625"/>
+    <col min="12" max="12" width="29.28515625" style="3"/>
+    <col min="13" max="13" width="41.42578125"/>
+    <col min="14" max="14" width="30.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125"/>
+    <col min="17" max="18" width="34.5703125"/>
+    <col min="19" max="19" width="28.85546875" customWidth="1"/>
     <col min="20" max="20" width="32.140625"/>
     <col min="21" max="21" width="28.7109375"/>
     <col min="22" max="22" width="28.28515625"/>
-    <col min="23" max="23" width="21.28515625" style="5" customWidth="1"/>
-    <col min="24" max="45" width="11.140625" style="5"/>
+    <col min="23" max="23" width="30.42578125" style="4" customWidth="1"/>
+    <col min="24" max="45" width="11.140625" style="4"/>
     <col min="46" max="1025" width="11.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>25</v>
+      <c r="W1" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">
@@ -3660,18 +3587,10 @@
     <row r="992" spans="23:23" x14ac:dyDescent="0.2">
       <c r="W992" s="2"/>
     </row>
-    <row r="993" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W993" s="2"/>
-    </row>
-    <row r="994" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W994" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AS2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S2">
-      <formula1>Choices</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S1048576">
+      <formula1>OuiOuNon</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3692,16 +3611,41 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>